--- a/sport2_data.xlsx
+++ b/sport2_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,7 +506,22 @@
           <t>83.9%</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C5" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2024-06-16 17:48:50.081151</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>84.4%</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>34</t>
         </is>

--- a/sport2_data.xlsx
+++ b/sport2_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -521,7 +521,22 @@
           <t>84.4%</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C6" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2024-06-17 23:39:34.546610</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>84.4%</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>34</t>
         </is>

--- a/sport2_data.xlsx
+++ b/sport2_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -536,7 +536,22 @@
           <t>84.4%</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C7" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2024-06-25 23:55:14.115376</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>85.3%</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
